--- a/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,44 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v/>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,52 +816,156 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+        <v>525</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>KCH</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>29730000</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>3700000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
       <c r="K5" t="n">
-        <v>2000000</v>
+        <v/>
       </c>
       <c r="L5" t="n">
-        <v>31730000</v>
+        <v>3700000</v>
       </c>
       <c r="M5" t="n">
-        <v>28730000</v>
+        <v>3700000</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>28730000</v>
+        <v>3700000</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>33430000</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>35430000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>32430000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>32430000</v>
+      </c>
+      <c r="P6" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V5" t="n">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V6" t="n">
         <v>50000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -415,14 +415,419 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>532</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-08-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ngô  xuân nghi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Các ngoại khoa khác</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>688000</v>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v>688000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>688000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>688000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v/>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>68800</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>538</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2375000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>10688000</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18688000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10188000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10188000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="W4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2443800</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,82 +879,107 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Nhóm dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Tên dịch vụ</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Sale chính</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Đơn giá gốc</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Sale phụ</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Upsale</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Đơn giá</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Thanh toán lần đầu</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Trả sau</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Đã thanh toán</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Dư nợ</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Bác sĩ 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Bác sĩ 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Phụ phẫu 1</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 1</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -584,59 +1014,76 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Cắt mí</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>8000000</v>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
       <c r="K2" t="n">
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>8000000</v>
+        <v/>
       </c>
       <c r="M2" t="n">
         <v>8000000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>8000000</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
       <c r="U2" t="n">
         <v/>
       </c>
       <c r="V2" t="n">
-        <v/>
+        <v>50000</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -670,61 +1117,78 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Mở góc mắt</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4000000</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6000000</v>
       </c>
       <c r="M3" t="n">
         <v>6000000</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>6000000</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
       <c r="U3" t="n">
+        <v/>
+      </c>
+      <c r="V3" t="n">
         <v>50000</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>820000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="4">
@@ -758,59 +1222,76 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>17730000</v>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
       <c r="K4" t="n">
         <v/>
       </c>
       <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
         <v>17730000</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>14730000</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>14730000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>3000000</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
       <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
         <v>100000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>50000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3682500</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -839,112 +1320,247 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>KCH</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Vùng mắt</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Nâng cung chân mày</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>3700000</v>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
       <c r="K5" t="n">
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>3700000</v>
+        <v/>
       </c>
       <c r="M5" t="n">
         <v>3700000</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3700000</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>3700000</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
       <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
         <v>50000</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>148000</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>538</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-11-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2375000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>33430000</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>35430000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>32430000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>32430000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>50000</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>43430000</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53430000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>41930000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41930000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>350000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8625500</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -958,14 +1574,255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Danh mục</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ngày công</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Phụ cấp</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2375000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Các ngoại khoa khác</t>
+          <t>Tiêm</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -754,13 +754,13 @@
         <v>50000</v>
       </c>
       <c r="X3" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y3" t="n">
         <v>0.04</v>
       </c>
       <c r="Z3" t="n">
-        <v>2375000</v>
+        <v>950000</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
         <v>50000</v>
       </c>
       <c r="X4" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
         <v>0.04</v>
       </c>
       <c r="Z4" t="n">
-        <v>2443800</v>
+        <v>1018800</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1600000</v>
+        <v>1040000</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="Y3" t="n">
         <v>0.04</v>
       </c>
       <c r="Z3" t="n">
-        <v>820000</v>
+        <v>700000</v>
       </c>
       <c r="AA3" t="n">
         <v>80000</v>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1251,13 +1251,13 @@
         <v>14730000</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P4" t="n">
-        <v>14730000</v>
+        <v>17730000</v>
       </c>
       <c r="Q4" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -1282,13 +1282,13 @@
         <v>50000</v>
       </c>
       <c r="X4" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>3682500</v>
+        <v>1773000</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Vùng mắt</t>
+          <t>Tiểu phẫu</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1490,13 +1490,13 @@
         <v>50000</v>
       </c>
       <c r="X6" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" t="n">
         <v>0.04</v>
       </c>
       <c r="Z6" t="n">
-        <v>2375000</v>
+        <v>950000</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1505,61 +1505,475 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>548</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-14-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Nhiên</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>557</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>558</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tiểu phẫu</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>975000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>565</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-17-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>43430000</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>126430000</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
         <v>10000000</v>
       </c>
-      <c r="M7" t="n">
-        <v>53430000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>41930000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>41930000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>11500000</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>350000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="M11" t="n">
+        <v>136430000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>119430000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>122430000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>700000</v>
+      </c>
+      <c r="W11" t="n">
+        <v>250000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.08</v>
       </c>
-      <c r="Z7" t="n">
-        <v>8625500</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="Z11" t="n">
+        <v>14186000</v>
+      </c>
+      <c r="AA11" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -1574,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1599,7 +2013,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -1609,7 +2023,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="4">
@@ -1629,7 +2043,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2375000</v>
+        <v>950000</v>
       </c>
     </row>
     <row r="6">
@@ -1669,7 +2083,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>350000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="10">
@@ -1685,27 +2099,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-1400000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1715,7 +2129,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1725,7 +2139,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1735,7 +2149,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1745,7 +2159,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1755,47 +2169,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68800</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1714285.714285714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>68800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1805,7 +2219,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1815,11 +2229,81 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5010000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1783085.714285714</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6793085.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
+++ b/report_ca_nhan/NV-29 Lâm Hoàng Phú 7-2024.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,107 +456,42 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Đơn giá</t>
+          <t>Tỉ lệ chiết khấu sale chính</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -591,74 +526,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiêm</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>Tiêm Filler</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="H2" t="n">
+        <v>688000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
       </c>
       <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
         <v>688000</v>
       </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
       <c r="L2" t="n">
-        <v/>
+        <v>688000</v>
       </c>
       <c r="M2" t="n">
-        <v>688000</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>688000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>688000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
-      </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
         <v>68800</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -695,75 +585,28 @@
           <t>Nâng mũi</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
+      <c r="H3" t="n">
+        <v>10000000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>8000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18000000</v>
       </c>
       <c r="L3" t="n">
-        <v>8000000</v>
+        <v>9500000</v>
       </c>
       <c r="M3" t="n">
-        <v>18000000</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
-        <v>100000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
         <v>950000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -780,51 +623,24 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>10688000</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>10688000</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>8000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18688000</v>
+      </c>
       <c r="L4" t="n">
-        <v>8000000</v>
+        <v>10188000</v>
       </c>
       <c r="M4" t="n">
-        <v>18688000</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>10188000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>10188000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>150000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z4" t="n">
         <v>1018800</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,107 +695,17 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nhóm dịch vụ</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
+          <t>Phụ phẫu 1</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
           <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
@@ -1014,76 +740,16 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
-      <c r="M2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v/>
-      </c>
-      <c r="V2" t="n">
+      <c r="I2" t="n">
         <v>50000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1040000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1117,78 +783,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v/>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v/>
-      </c>
-      <c r="V3" t="n">
+      <c r="I3" t="n">
         <v>50000</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>700000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>80000</v>
       </c>
     </row>
     <row r="4">
@@ -1227,71 +831,11 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14730000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17730000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
+      <c r="I4" t="n">
         <v>100000</v>
-      </c>
-      <c r="W4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1773000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1325,76 +869,16 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
+      <c r="I5" t="n">
         <v>50000</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>148000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1433,73 +917,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>9500000</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
+      <c r="I6" t="n">
         <v>100000</v>
-      </c>
-      <c r="W6" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>950000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1538,71 +960,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
+      <c r="I7" t="n">
         <v>100000</v>
-      </c>
-      <c r="W7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1641,71 +1003,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
+      <c r="I8" t="n">
         <v>100000</v>
-      </c>
-      <c r="W8" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>4800000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1739,76 +1041,16 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tiểu phẫu</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
+      <c r="I9" t="n">
         <v>50000</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>975000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1847,73 +1089,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
+      <c r="I10" t="n">
         <v>100000</v>
-      </c>
-      <c r="W10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1931,50 +1111,8 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>126430000</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>136430000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>119430000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>122430000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
+      <c r="I11" t="n">
         <v>700000</v>
-      </c>
-      <c r="W11" t="n">
-        <v>250000</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.9800000000000001</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>14186000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>80000</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +1137,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Danh mục</t>
+          <t>Danh mục lương</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -2013,7 +1151,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -2023,7 +1161,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560000</v>
+        <v>595000</v>
       </c>
     </row>
     <row r="4">
@@ -2193,7 +1331,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1714285.714285714</v>
+        <v>1821428.571428571</v>
       </c>
     </row>
     <row r="21">
@@ -2273,7 +1411,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5010000</v>
+        <v>845000</v>
       </c>
     </row>
     <row r="29">
@@ -2293,7 +1431,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1783085.714285714</v>
+        <v>1890228.571428571</v>
       </c>
     </row>
     <row r="31">
@@ -2303,7 +1441,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6793085.714285715</v>
+        <v>2735228.571428571</v>
       </c>
     </row>
   </sheetData>
